--- a/biology/Médecine/1853_en_santé_et_médecine/1853_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1853_en_santé_et_médecine/1853_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1853_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1853_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1853 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1853_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1853_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20 juillet : le chirurgien et urologue français Antonin Jean Desormeaux présente un mémoire à l'Académie de médecine où il présente son endoscope[1].
-Première synthèse de l’aspirine par le français Charles Frédéric Gerhardt chimiste strasbourgeois[2],[3].
-Le physiologiste lyonnais Charles Gabriel Pravaz perfectionne la seringue, qu'il dote d'une aiguille creuse (1852) et le médecin écossais Alexander Wood développe indépendamment une aiguille hypodermique à Édimbourg[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20 juillet : le chirurgien et urologue français Antonin Jean Desormeaux présente un mémoire à l'Académie de médecine où il présente son endoscope.
+Première synthèse de l’aspirine par le français Charles Frédéric Gerhardt chimiste strasbourgeois,.
+Le physiologiste lyonnais Charles Gabriel Pravaz perfectionne la seringue, qu'il dote d'une aiguille creuse (1852) et le médecin écossais Alexander Wood développe indépendamment une aiguille hypodermique à Édimbourg.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1853_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1853_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Puclications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>William John Little : On the Deformities of the Human Frame, où il décrit pour la première fois la dystrophie musculaire pseudo-hypertrophique.</t>
         </is>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1853_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1853_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>15 janvier : Charles-Édouard Hocquard (mort en 1911), médecin militaire, photographe et explorateur français, connu pour ses photographies d'Indochine et de Madagascar.
 29 janvier : Kitasato Shibasaburō (mort en 1931), médecin et bactériologiste japonais.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1853_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1853_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12 mars : Mathieu Orfila (né en 1787), médecin et chimiste français, d'origine espagnole[5].
-23 juin : Charles Gabriel Pravaz (né en 1791), chirurgien orthopédiste français, inventeur de la seringue[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12 mars : Mathieu Orfila (né en 1787), médecin et chimiste français, d'origine espagnole.
+23 juin : Charles Gabriel Pravaz (né en 1791), chirurgien orthopédiste français, inventeur de la seringue.
 18 octobre : Gotthelf Fischer von Waldheim (né en 1771), médecin, naturaliste, paléontologue et anatomiste saxon devenu sujet russe, père d'Alexandre Grigorievitch Fischer von Waldheim (1803-1884) et le grand-père d'Alexandre Alexandrovitch Fischer von Waldheim.</t>
         </is>
       </c>
